--- a/data/trans_dic/P15B_3_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P15B_3_R-Habitat-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.1241916948829648</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.304012736618515</v>
+        <v>0.3040127366185149</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
         <v>0.08775135313080057</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.1840482624253428</v>
+        <v>0.1840482624253429</v>
       </c>
     </row>
     <row r="5">
@@ -708,38 +708,38 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.242208527392265</v>
+        <v>0.2413530188669803</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1583612002748168</v>
+        <v>0.1539924905739952</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02549526612923771</v>
+        <v>0.04873346306102783</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.165474241303887</v>
+        <v>0.158472792638744</v>
       </c>
       <c r="G5" s="5" t="inlineStr"/>
       <c r="H5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01752409051824948</v>
+        <v>0.01742714875565252</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02108939585522094</v>
+        <v>0.02149598251699445</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1456748763772014</v>
+        <v>0.13683189465257</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.09532382298005405</v>
+        <v>0.1005431905733254</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.04298053646816844</v>
+        <v>0.0417401459524357</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1050903572733181</v>
+        <v>0.1085762540564494</v>
       </c>
     </row>
     <row r="6">
@@ -750,38 +750,38 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6721046969058128</v>
+        <v>0.6596166403892624</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.372066828616168</v>
+        <v>0.3823335795580806</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2480620932832586</v>
+        <v>0.2398356940565479</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5006435003030794</v>
+        <v>0.4899972092592807</v>
       </c>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="n">
-        <v>0.1882154526614296</v>
+        <v>0.1960823304861435</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1603492743421094</v>
+        <v>0.1590214337371851</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1153420067782427</v>
+        <v>0.1224597906154437</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4490248081310628</v>
+        <v>0.4387220701054748</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2367364248228812</v>
+        <v>0.23786456388717</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1565868981798577</v>
+        <v>0.1478812680348312</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3179079465598719</v>
+        <v>0.3172085358884845</v>
       </c>
     </row>
     <row r="7">
@@ -840,38 +840,38 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2105010861937691</v>
+        <v>0.2080577002030219</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1274132417609121</v>
+        <v>0.1296329001562957</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1003460665156736</v>
+        <v>0.1024035263126603</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1280175707116616</v>
+        <v>0.1322450624169075</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01299941650914501</v>
+        <v>0.01280681428311397</v>
       </c>
       <c r="I8" s="5" t="inlineStr"/>
       <c r="J8" s="5" t="n">
-        <v>0.02252293344637893</v>
+        <v>0.0182365870525561</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1397630575555668</v>
+        <v>0.1414917935742442</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.07977236654031786</v>
+        <v>0.07907488758521758</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.05256627528286913</v>
+        <v>0.05216233579801578</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.09828513394011837</v>
+        <v>0.09403823062980529</v>
       </c>
     </row>
     <row r="9">
@@ -882,38 +882,38 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.5252274272162145</v>
+        <v>0.5133426665239107</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3038813920029709</v>
+        <v>0.3141987204174086</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3093564557022745</v>
+        <v>0.3236586369504098</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3721545437590297</v>
+        <v>0.3584659760806752</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2482210036225564</v>
+        <v>0.2540744837687695</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1200699527414924</v>
+        <v>0.106636837000376</v>
       </c>
       <c r="I9" s="5" t="inlineStr"/>
       <c r="J9" s="5" t="n">
-        <v>0.1822411466280917</v>
+        <v>0.1898851286479047</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3534434253865271</v>
+        <v>0.3498318554022818</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1894004008944646</v>
+        <v>0.1931341542262541</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1773140663764073</v>
+        <v>0.1736148042993388</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2366191141724388</v>
+        <v>0.2343460948726777</v>
       </c>
     </row>
     <row r="10">
@@ -949,7 +949,7 @@
         <v>0.1615897102901792</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.033671460402575</v>
+        <v>0.03367146040257502</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.3547128645335313</v>
@@ -961,7 +961,7 @@
         <v>0.1637053972059186</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.1052327700177134</v>
+        <v>0.1052327700177133</v>
       </c>
     </row>
     <row r="11">
@@ -972,40 +972,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2226387321386412</v>
+        <v>0.2580108104175975</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1356974844742406</v>
+        <v>0.1323109718335032</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.06367737141565298</v>
+        <v>0.05755902446992795</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.08190238346131959</v>
+        <v>0.08231574817829641</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1177962718618397</v>
+        <v>0.09698608994034781</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02281120927144413</v>
+        <v>0.03461258163490289</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.0620304594029017</v>
+        <v>0.06097801117558039</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.009073556780086464</v>
+        <v>0.00938295526567832</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2195729820434363</v>
+        <v>0.2203760387808122</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1035248782971023</v>
+        <v>0.10039386390079</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.09024190923380708</v>
+        <v>0.09017877831250123</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.04873651062773066</v>
+        <v>0.05194424026010952</v>
       </c>
     </row>
     <row r="12">
@@ -1016,40 +1016,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6696489622981679</v>
+        <v>0.6595300599287842</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3624609352301775</v>
+        <v>0.3585646917754122</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3450622260588748</v>
+        <v>0.3402358204910741</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4045367677825831</v>
+        <v>0.3884814733470204</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4808385790343477</v>
+        <v>0.4670215388033133</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2114409902373022</v>
+        <v>0.2339104730710352</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3343338196530326</v>
+        <v>0.3306724224652977</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.09583560800711388</v>
+        <v>0.08892890900804468</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.5056229358138804</v>
+        <v>0.4974391693900586</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2441300454925291</v>
+        <v>0.2419081092377615</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2786561203544516</v>
+        <v>0.2803645667051107</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2023264536634248</v>
+        <v>0.2017454304894094</v>
       </c>
     </row>
     <row r="13">
@@ -1108,16 +1108,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02658014523093475</v>
+        <v>0.02687264933445987</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1124091602780218</v>
+        <v>0.1096958430404874</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04736129688748201</v>
+        <v>0.05019352334389637</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.08885692077124303</v>
+        <v>0.0836242723691925</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>0</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.03529813508044693</v>
+        <v>0.03292397984450792</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.05316022960048464</v>
+        <v>0.05033145855406411</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03112666900132477</v>
+        <v>0.0306800025778779</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.0747315048185546</v>
+        <v>0.07714991152201461</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.05765605162198534</v>
+        <v>0.05989749020196382</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.08349300372208897</v>
+        <v>0.0832140190948443</v>
       </c>
     </row>
     <row r="15">
@@ -1152,40 +1152,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2224863413930356</v>
+        <v>0.249398149177207</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.28035446429796</v>
+        <v>0.2876181947913073</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2064173837079564</v>
+        <v>0.2135254642413501</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2989658373496515</v>
+        <v>0.284533834032168</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2041258954222808</v>
+        <v>0.2752318143177956</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1098468978218899</v>
+        <v>0.1073863846687775</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1873299595704438</v>
+        <v>0.1950778810359779</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1878557454137579</v>
+        <v>0.1788320005314377</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1712865347847399</v>
+        <v>0.1764262606563345</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1769292410851961</v>
+        <v>0.1859239214789944</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1726965078306237</v>
+        <v>0.1670497865596651</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1990720173914084</v>
+        <v>0.2031013133700921</v>
       </c>
     </row>
     <row r="16">
@@ -1209,7 +1209,7 @@
         <v>0.1493770723618271</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.2251200706489317</v>
+        <v>0.2251200706489316</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.1011406918914414</v>
@@ -1244,40 +1244,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2385407911320321</v>
+        <v>0.2441374983923758</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1697446666138158</v>
+        <v>0.1703270719971355</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1009837460447371</v>
+        <v>0.1037346767917693</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1665661108627925</v>
+        <v>0.1610185385228425</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.05327803248584367</v>
+        <v>0.05011854096064003</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.028392660922409</v>
+        <v>0.02638448427848218</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.04266470319071783</v>
+        <v>0.0378881539605784</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.0466227796313925</v>
+        <v>0.04330780801506204</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1701465577093595</v>
+        <v>0.1709232208426756</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1122796934474893</v>
+        <v>0.1106338499174912</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.08375766558011472</v>
+        <v>0.08404559819152103</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1125718594342362</v>
+        <v>0.1142072073596716</v>
       </c>
     </row>
     <row r="18">
@@ -1288,40 +1288,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4135438132681385</v>
+        <v>0.4167038430676636</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2680569748954998</v>
+        <v>0.264364232308139</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2073407684596927</v>
+        <v>0.2087899847800534</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2994762012737923</v>
+        <v>0.2904873451088611</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1807475109307728</v>
+        <v>0.1749567541905621</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.095152351366646</v>
+        <v>0.09086444810774015</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1185212447961957</v>
+        <v>0.1178279159451271</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1093363204005175</v>
+        <v>0.1121418613028523</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2879433517052797</v>
+        <v>0.2881289615526597</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1745055905008146</v>
+        <v>0.1727862370158598</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1459445614901437</v>
+        <v>0.1488528703542169</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.189697352301953</v>
+        <v>0.1893544477406301</v>
       </c>
     </row>
     <row r="19">
@@ -1592,38 +1592,38 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>5518</v>
+        <v>5499</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>9347</v>
+        <v>9089</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1013</v>
+        <v>1937</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>8223</v>
+        <v>7875</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>990</v>
+        <v>1009</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>5630</v>
+        <v>5288</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>10628</v>
+        <v>11210</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>3800</v>
+        <v>3691</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>10153</v>
+        <v>10490</v>
       </c>
     </row>
     <row r="7">
@@ -1634,38 +1634,38 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>15312</v>
+        <v>15027</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>21960</v>
+        <v>22566</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>9859</v>
+        <v>9532</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>24877</v>
+        <v>24348</v>
       </c>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="n">
-        <v>9877</v>
+        <v>10290</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>7805</v>
+        <v>7740</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>5412</v>
+        <v>5746</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>17354</v>
+        <v>16956</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>26396</v>
+        <v>26521</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>13845</v>
+        <v>13075</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>30714</v>
+        <v>30646</v>
       </c>
     </row>
     <row r="8">
@@ -1768,38 +1768,38 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>9005</v>
+        <v>8901</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>10357</v>
+        <v>10538</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>6068</v>
+        <v>6193</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>9435</v>
+        <v>9747</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>970</v>
+        <v>956</v>
       </c>
       <c r="I10" s="6" t="inlineStr"/>
       <c r="J10" s="6" t="n">
-        <v>1415</v>
+        <v>1145</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>10191</v>
+        <v>10317</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>12438</v>
+        <v>12329</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>5734</v>
+        <v>5690</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>13417</v>
+        <v>12837</v>
       </c>
     </row>
     <row r="11">
@@ -1810,38 +1810,38 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>22469</v>
+        <v>21961</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>24702</v>
+        <v>25541</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>18708</v>
+        <v>19573</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>27429</v>
+        <v>26420</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>7480</v>
+        <v>7657</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>8960</v>
+        <v>7958</v>
       </c>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>11445</v>
+        <v>11926</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>25771</v>
+        <v>25508</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>29530</v>
+        <v>30112</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>19340</v>
+        <v>18937</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>32300</v>
+        <v>31990</v>
       </c>
     </row>
     <row r="12">
@@ -1944,40 +1944,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>5300</v>
+        <v>6142</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>7926</v>
+        <v>7728</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2335</v>
+        <v>2110</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>2700</v>
+        <v>2714</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>2841</v>
+        <v>2339</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1301</v>
+        <v>1974</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1958</v>
+        <v>1925</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>10522</v>
+        <v>10560</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>11952</v>
+        <v>11591</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>6157</v>
+        <v>6153</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>4018</v>
+        <v>4283</v>
       </c>
     </row>
     <row r="15">
@@ -1988,40 +1988,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>15942</v>
+        <v>15701</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>21171</v>
+        <v>20943</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>12652</v>
+        <v>12475</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>13338</v>
+        <v>12809</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>11595</v>
+        <v>11262</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>12062</v>
+        <v>13343</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>10552</v>
+        <v>10436</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>4742</v>
+        <v>4400</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>24229</v>
+        <v>23837</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>28186</v>
+        <v>27929</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>19012</v>
+        <v>19128</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>16682</v>
+        <v>16634</v>
       </c>
     </row>
     <row r="16">
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>896</v>
+        <v>906</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>9920</v>
+        <v>9681</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2884</v>
+        <v>3056</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>5647</v>
+        <v>5314</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
@@ -2142,22 +2142,22 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2210</v>
+        <v>2062</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>3879</v>
+        <v>3673</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1787</v>
+        <v>1761</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>11921</v>
+        <v>12306</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>7121</v>
+        <v>7398</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>11398</v>
+        <v>11360</v>
       </c>
     </row>
     <row r="19">
@@ -2168,40 +2168,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>7500</v>
+        <v>8407</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>24742</v>
+        <v>25383</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>12568</v>
+        <v>13001</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>18998</v>
+        <v>18081</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>4836</v>
+        <v>6520</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>7828</v>
+        <v>7652</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>11730</v>
+        <v>12215</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>13708</v>
+        <v>13050</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>9832</v>
+        <v>10127</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>28223</v>
+        <v>29657</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>21329</v>
+        <v>20631</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>27177</v>
+        <v>27727</v>
       </c>
     </row>
     <row r="20">
@@ -2304,40 +2304,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>29359</v>
+        <v>30048</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>48712</v>
+        <v>48879</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>19971</v>
+        <v>20516</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>36630</v>
+        <v>35410</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>4998</v>
+        <v>4701</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>7252</v>
+        <v>6739</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>8168</v>
+        <v>7254</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>10825</v>
+        <v>10055</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>36902</v>
+        <v>37070</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>60898</v>
+        <v>60005</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>32600</v>
+        <v>32712</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>50893</v>
+        <v>51632</v>
       </c>
     </row>
     <row r="23">
@@ -2348,40 +2348,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>50898</v>
+        <v>51287</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>76925</v>
+        <v>75865</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>41006</v>
+        <v>41292</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>65858</v>
+        <v>63881</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>16955</v>
+        <v>16412</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>24302</v>
+        <v>23207</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>22691</v>
+        <v>22559</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>25386</v>
+        <v>26037</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>62450</v>
+        <v>62490</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>94648</v>
+        <v>93715</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>56805</v>
+        <v>57937</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>85760</v>
+        <v>85605</v>
       </c>
     </row>
     <row r="24">
